--- a/DATABASE.xlsx
+++ b/DATABASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gordon/Pyrshang/layout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E23115-4785-0A48-932F-DD95570DDE94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CF9418-7151-EB40-82AA-E2C65CE94307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="240" windowWidth="28040" windowHeight="17440" xr2:uid="{98D48EEB-6ACC-7C48-AB1D-AF6997071731}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>category</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>PK</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B582D6-737B-4140-A7CB-B79E47258494}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,6 +512,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATABASE.xlsx
+++ b/DATABASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gordon/Pyrshang/layout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CF9418-7151-EB40-82AA-E2C65CE94307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52AA899-DBCA-9F4D-BB8C-53BD06111AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="240" windowWidth="28040" windowHeight="17440" xr2:uid="{98D48EEB-6ACC-7C48-AB1D-AF6997071731}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>category</t>
   </si>
@@ -75,14 +75,28 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>tables</t>
+  </si>
+  <si>
+    <t>table_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,9 +130,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B582D6-737B-4140-A7CB-B79E47258494}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,6 +535,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
